--- a/Example_input_data/input_data_template.xlsx
+++ b/Example_input_data/input_data_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.3\Example_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.8\Example_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>10-Be conc. 1 sigma (atoms/g)</t>
-  </si>
-  <si>
-    <t>26-Be conc. 1 sigma (atoms/g)</t>
   </si>
   <si>
     <t>Sample name</t>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Elevation uncertainty (m) - zero if unknown</t>
+  </si>
+  <si>
+    <t>26-Al conc. 1 sigma (atoms/g)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,25 +486,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -522,34 +522,34 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
